--- a/docs/data_systemic_risk.xlsx
+++ b/docs/data_systemic_risk.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24604"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel C. Herculano\OneDrive - University of Glasgow\github\website_\mcherculano.github.io\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4DB114E441178AC67DF4F93E55C5CE693EDF23" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{495B12B0-A493-42DC-A937-D5E7B7B8D7D9}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4DB114E441178AC67DF4F93E55C5CE693EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{495B12B0-A493-42DC-A937-D5E7B7B8D7D9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,6 +36,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
+    <t>tcode</t>
+  </si>
+  <si>
     <t>yyyyqq</t>
   </si>
   <si>
@@ -913,9 +925,6 @@
   </si>
   <si>
     <t>2011Q4</t>
-  </si>
-  <si>
-    <t>tcode</t>
   </si>
 </sst>
 </file>
@@ -925,7 +934,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,38 +1286,38 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36">
       <c r="A1" s="2" t="s">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>5</v>
@@ -1416,119 +1425,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2">
         <v>1934.471</v>
@@ -1600,9 +1609,9 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2">
         <v>1932.2809999999999</v>
@@ -1674,9 +1683,9 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2">
         <v>1930.3150000000001</v>
@@ -1748,9 +1757,9 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2">
         <v>1960.7049999999999</v>
@@ -1822,9 +1831,9 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2">
         <v>1989.5350000000001</v>
@@ -1896,9 +1905,9 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2">
         <v>2021.8510000000001</v>
@@ -1970,9 +1979,9 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2">
         <v>2033.155</v>
@@ -2044,9 +2053,9 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2">
         <v>2035.329</v>
@@ -2118,9 +2127,9 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2">
         <v>2007.5219999999999</v>
@@ -2192,9 +2201,9 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2">
         <v>2000.788</v>
@@ -2266,9 +2275,9 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2">
         <v>2022.798</v>
@@ -2340,9 +2349,9 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>2004.653</v>
@@ -2414,9 +2423,9 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
         <v>2084.5590000000002</v>
@@ -2488,9 +2497,9 @@
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36">
       <c r="A16" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
         <v>2147.5920000000001</v>
@@ -2562,9 +2571,9 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>2230.3620000000001</v>
@@ -2636,9 +2645,9 @@
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>2273.4349999999999</v>
@@ -2710,9 +2719,9 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>2304.5419999999999</v>
@@ -2784,9 +2793,9 @@
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2">
         <v>2344.5169999999998</v>
@@ -2858,9 +2867,9 @@
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36">
       <c r="A21" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2">
         <v>2392.808</v>
@@ -2932,9 +2941,9 @@
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36">
       <c r="A22" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2">
         <v>2398.105</v>
@@ -3006,9 +3015,9 @@
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36">
       <c r="A23" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2">
         <v>2423.4569999999999</v>
@@ -3080,9 +3089,9 @@
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36">
       <c r="A24" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2">
         <v>2428.5160000000001</v>
@@ -3154,9 +3163,9 @@
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36">
       <c r="A25" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2">
         <v>2446.0810000000001</v>
@@ -3228,9 +3237,9 @@
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36">
       <c r="A26" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2">
         <v>2526.3589999999999</v>
@@ -3302,9 +3311,9 @@
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36">
       <c r="A27" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2">
         <v>2573.3719999999998</v>
@@ -3376,9 +3385,9 @@
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36">
       <c r="A28" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2">
         <v>2593.4560000000001</v>
@@ -3450,9 +3459,9 @@
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36">
       <c r="A29" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2">
         <v>2578.922</v>
@@ -3524,9 +3533,9 @@
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36">
       <c r="A30" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2">
         <v>2539.7860000000001</v>
@@ -3598,9 +3607,9 @@
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36">
       <c r="A31" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2">
         <v>2528.0430000000001</v>
@@ -3672,9 +3681,9 @@
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36">
       <c r="A32" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2">
         <v>2530.6889999999999</v>
@@ -3746,9 +3755,9 @@
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36">
       <c r="A33" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2">
         <v>2559.3969999999999</v>
@@ -3820,9 +3829,9 @@
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36">
       <c r="A34" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2">
         <v>2609.2719999999999</v>
@@ -3894,9 +3903,9 @@
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36">
       <c r="A35" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2">
         <v>2683.7660000000001</v>
@@ -3968,9 +3977,9 @@
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36">
       <c r="A36" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2">
         <v>2727.4520000000002</v>
@@ -4042,9 +4051,9 @@
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36">
       <c r="A37" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2">
         <v>2764.1280000000002</v>
@@ -4116,9 +4125,9 @@
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36">
       <c r="A38" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2">
         <v>2780.7620000000002</v>
@@ -4190,9 +4199,9 @@
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36">
       <c r="A39" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2">
         <v>2770.0320000000002</v>
@@ -4264,9 +4273,9 @@
       <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36">
       <c r="A40" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2">
         <v>2792.8719999999998</v>
@@ -4338,9 +4347,9 @@
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36">
       <c r="A41" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2">
         <v>2790.5880000000002</v>
@@ -4412,9 +4421,9 @@
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36">
       <c r="A42" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2">
         <v>2836.2379999999998</v>
@@ -4486,9 +4495,9 @@
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36">
       <c r="A43" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2">
         <v>2854.5169999999998</v>
@@ -4560,9 +4569,9 @@
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36">
       <c r="A44" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2">
         <v>2848.1860000000001</v>
@@ -4634,9 +4643,9 @@
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36">
       <c r="A45" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2">
         <v>2875.9270000000001</v>
@@ -4708,9 +4717,9 @@
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36">
       <c r="A46" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2">
         <v>2846.4459999999999</v>
@@ -4782,9 +4791,9 @@
       <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36">
       <c r="A47" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2">
         <v>2772.654</v>
@@ -4856,9 +4865,9 @@
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36">
       <c r="A48" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2">
         <v>2790.9479999999999</v>
@@ -4930,9 +4939,9 @@
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36">
       <c r="A49" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2">
         <v>2855.4720000000002</v>
@@ -5004,9 +5013,9 @@
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36">
       <c r="A50" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2">
         <v>2922.2640000000001</v>
@@ -5078,9 +5087,9 @@
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36">
       <c r="A51" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2">
         <v>2976.6289999999999</v>
@@ -5154,9 +5163,9 @@
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36">
       <c r="A52" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2">
         <v>3049.011</v>
@@ -5230,9 +5239,9 @@
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36">
       <c r="A53" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2">
         <v>3043.1390000000001</v>
@@ -5306,9 +5315,9 @@
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36">
       <c r="A54" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2">
         <v>3055.1039999999998</v>
@@ -5382,9 +5391,9 @@
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36">
       <c r="A55" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2">
         <v>3123.1619999999998</v>
@@ -5458,9 +5467,9 @@
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36">
       <c r="A56" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2">
         <v>3111.31</v>
@@ -5534,9 +5543,9 @@
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36">
       <c r="A57" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2">
         <v>3119.0569999999998</v>
@@ -5610,9 +5619,9 @@
       <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36">
       <c r="A58" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2">
         <v>3081.3</v>
@@ -5686,9 +5695,9 @@
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36">
       <c r="A59" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2">
         <v>3102.2510000000002</v>
@@ -5762,9 +5771,9 @@
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36">
       <c r="A60" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2">
         <v>3159.9180000000001</v>
@@ -5838,9 +5847,9 @@
       <c r="AI60" s="2"/>
       <c r="AJ60" s="2"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36">
       <c r="A61" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2">
         <v>3212.6060000000002</v>
@@ -5914,9 +5923,9 @@
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36">
       <c r="A62" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2">
         <v>3277.7170000000001</v>
@@ -5990,9 +5999,9 @@
       <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36">
       <c r="A63" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2">
         <v>3336.7530000000002</v>
@@ -6070,9 +6079,9 @@
       <c r="AI63" s="2"/>
       <c r="AJ63" s="2"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36">
       <c r="A64" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2">
         <v>3372.7060000000001</v>
@@ -6150,9 +6159,9 @@
       <c r="AI64" s="2"/>
       <c r="AJ64" s="2"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36">
       <c r="A65" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2">
         <v>3404.8330000000001</v>
@@ -6232,9 +6241,9 @@
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36">
       <c r="A66" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2">
         <v>3418.0459999999998</v>
@@ -6314,9 +6323,9 @@
       <c r="AI66" s="2"/>
       <c r="AJ66" s="2"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36">
       <c r="A67" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2">
         <v>3456.08</v>
@@ -6396,9 +6405,9 @@
       <c r="AI67" s="2"/>
       <c r="AJ67" s="2"/>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36">
       <c r="A68" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2">
         <v>3501.134</v>
@@ -6480,9 +6489,9 @@
       <c r="AI68" s="2"/>
       <c r="AJ68" s="2"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36">
       <c r="A69" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2">
         <v>3569.4789999999998</v>
@@ -6564,9 +6573,9 @@
       <c r="AI69" s="2"/>
       <c r="AJ69" s="2"/>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36">
       <c r="A70" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2">
         <v>3594.9540000000002</v>
@@ -6648,9 +6657,9 @@
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36">
       <c r="A71" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2">
         <v>3672.7080000000001</v>
@@ -6732,9 +6741,9 @@
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36">
       <c r="A72" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2">
         <v>3716.3820000000001</v>
@@ -6816,9 +6825,9 @@
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36">
       <c r="A73" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2">
         <v>3766.8620000000001</v>
@@ -6900,9 +6909,9 @@
       <c r="AI73" s="2"/>
       <c r="AJ73" s="2"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:36">
       <c r="A74" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2">
         <v>3780.2190000000001</v>
@@ -6984,9 +6993,9 @@
       <c r="AI74" s="2"/>
       <c r="AJ74" s="2"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:36">
       <c r="A75" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2">
         <v>3873.4520000000002</v>
@@ -7068,9 +7077,9 @@
       <c r="AI75" s="2"/>
       <c r="AJ75" s="2"/>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:36">
       <c r="A76" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2">
         <v>3926.4059999999999</v>
@@ -7152,9 +7161,9 @@
       <c r="AI76" s="2"/>
       <c r="AJ76" s="2"/>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:36">
       <c r="A77" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2">
         <v>4006.152</v>
@@ -7238,9 +7247,9 @@
       <c r="AI77" s="2"/>
       <c r="AJ77" s="2"/>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:36">
       <c r="A78" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2">
         <v>4100.6310000000003</v>
@@ -7324,9 +7333,9 @@
       <c r="AI78" s="2"/>
       <c r="AJ78" s="2"/>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:36">
       <c r="A79" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2">
         <v>4201.8909999999996</v>
@@ -7410,9 +7419,9 @@
       <c r="AI79" s="2"/>
       <c r="AJ79" s="2"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:36">
       <c r="A80" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2">
         <v>4219.0969999999998</v>
@@ -7496,9 +7505,9 @@
       <c r="AI80" s="2"/>
       <c r="AJ80" s="2"/>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:36">
       <c r="A81" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2">
         <v>4249.152</v>
@@ -7582,9 +7591,9 @@
       <c r="AI81" s="2"/>
       <c r="AJ81" s="2"/>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:36">
       <c r="A82" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2">
         <v>4285.5820000000003</v>
@@ -7668,9 +7677,9 @@
       <c r="AI82" s="2"/>
       <c r="AJ82" s="2"/>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:36">
       <c r="A83" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2">
         <v>4324.9260000000004</v>
@@ -7754,9 +7763,9 @@
       <c r="AI83" s="2"/>
       <c r="AJ83" s="2"/>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:36">
       <c r="A84" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2">
         <v>4328.72</v>
@@ -7842,9 +7851,9 @@
       <c r="AI84" s="2"/>
       <c r="AJ84" s="2"/>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:36">
       <c r="A85" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2">
         <v>4366.0879999999997</v>
@@ -7930,9 +7939,9 @@
       <c r="AI85" s="2"/>
       <c r="AJ85" s="2"/>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:36">
       <c r="A86" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2">
         <v>4401.2330000000002</v>
@@ -8018,9 +8027,9 @@
       <c r="AI86" s="2"/>
       <c r="AJ86" s="2"/>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:36">
       <c r="A87" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2">
         <v>4490.6090000000004</v>
@@ -8106,9 +8115,9 @@
       <c r="AI87" s="2"/>
       <c r="AJ87" s="2"/>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:36">
       <c r="A88" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2">
         <v>4566.442</v>
@@ -8194,9 +8203,9 @@
       <c r="AI88" s="2"/>
       <c r="AJ88" s="2"/>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:36">
       <c r="A89" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2">
         <v>4599.3320000000003</v>
@@ -8282,9 +8291,9 @@
       <c r="AI89" s="2"/>
       <c r="AJ89" s="2"/>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:36">
       <c r="A90" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2">
         <v>4619.8029999999999</v>
@@ -8370,9 +8379,9 @@
       <c r="AI90" s="2"/>
       <c r="AJ90" s="2"/>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:36">
       <c r="A91" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2">
         <v>4691.6369999999997</v>
@@ -8458,9 +8467,9 @@
       <c r="AI91" s="2"/>
       <c r="AJ91" s="2"/>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:36">
       <c r="A92" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2">
         <v>4706.6840000000002</v>
@@ -8546,9 +8555,9 @@
       <c r="AI92" s="2"/>
       <c r="AJ92" s="2"/>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:36">
       <c r="A93" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2">
         <v>4736.143</v>
@@ -8638,9 +8647,9 @@
       <c r="AI93" s="2"/>
       <c r="AJ93" s="2"/>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:36">
       <c r="A94" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2">
         <v>4715.4690000000001</v>
@@ -8730,9 +8739,9 @@
       <c r="AI94" s="2"/>
       <c r="AJ94" s="2"/>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:36">
       <c r="A95" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2">
         <v>4707.1120000000001</v>
@@ -8822,9 +8831,9 @@
       <c r="AI95" s="2"/>
       <c r="AJ95" s="2"/>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:36">
       <c r="A96" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2">
         <v>4715.4409999999998</v>
@@ -8914,9 +8923,9 @@
       <c r="AI96" s="2"/>
       <c r="AJ96" s="2"/>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:36">
       <c r="A97" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2">
         <v>4757.2129999999997</v>
@@ -9006,9 +9015,9 @@
       <c r="AI97" s="2"/>
       <c r="AJ97" s="2"/>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:36">
       <c r="A98" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2">
         <v>4708.2809999999999</v>
@@ -9098,9 +9107,9 @@
       <c r="AI98" s="2"/>
       <c r="AJ98" s="2"/>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:36">
       <c r="A99" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2">
         <v>4834.3490000000002</v>
@@ -9190,9 +9199,9 @@
       <c r="AI99" s="2"/>
       <c r="AJ99" s="2"/>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:36">
       <c r="A100" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2">
         <v>4861.9380000000001</v>
@@ -9284,9 +9293,9 @@
       <c r="AI100" s="2"/>
       <c r="AJ100" s="2"/>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:36">
       <c r="A101" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2">
         <v>4899.95</v>
@@ -9378,9 +9387,9 @@
       <c r="AI101" s="2"/>
       <c r="AJ101" s="2"/>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:36">
       <c r="A102" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2">
         <v>4914.2610000000004</v>
@@ -9472,9 +9481,9 @@
       <c r="AI102" s="2"/>
       <c r="AJ102" s="2"/>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:36">
       <c r="A103" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2">
         <v>5002.4359999999997</v>
@@ -9566,9 +9575,9 @@
       <c r="AI103" s="2"/>
       <c r="AJ103" s="2"/>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:36">
       <c r="A104" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2">
         <v>5118.2780000000002</v>
@@ -9660,9 +9669,9 @@
       <c r="AI104" s="2"/>
       <c r="AJ104" s="2"/>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:36">
       <c r="A105" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2">
         <v>5165.4480000000003</v>
@@ -9754,9 +9763,9 @@
       <c r="AI105" s="2"/>
       <c r="AJ105" s="2"/>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:36">
       <c r="A106" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2">
         <v>5251.2259999999997</v>
@@ -9848,9 +9857,9 @@
       <c r="AI106" s="2"/>
       <c r="AJ106" s="2"/>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:36">
       <c r="A107" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2">
         <v>5380.5020000000004</v>
@@ -9946,9 +9955,9 @@
       <c r="AI107" s="2"/>
       <c r="AJ107" s="2"/>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:36">
       <c r="A108" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2">
         <v>5441.5039999999999</v>
@@ -10044,9 +10053,9 @@
       <c r="AI108" s="2"/>
       <c r="AJ108" s="2"/>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:36">
       <c r="A109" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2">
         <v>5411.9350000000004</v>
@@ -10142,9 +10151,9 @@
       <c r="AI109" s="2"/>
       <c r="AJ109" s="2"/>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:36">
       <c r="A110" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2">
         <v>5462.3969999999999</v>
@@ -10240,9 +10249,9 @@
       <c r="AI110" s="2"/>
       <c r="AJ110" s="2"/>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:36">
       <c r="A111" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2">
         <v>5417.0240000000003</v>
@@ -10338,9 +10347,9 @@
       <c r="AI111" s="2"/>
       <c r="AJ111" s="2"/>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:36">
       <c r="A112" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B112" s="2">
         <v>5431.2650000000003</v>
@@ -10436,9 +10445,9 @@
       <c r="AI112" s="2"/>
       <c r="AJ112" s="2"/>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:36">
       <c r="A113" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2">
         <v>5378.6790000000001</v>
@@ -10534,9 +10543,9 @@
       <c r="AI113" s="2"/>
       <c r="AJ113" s="2"/>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:36">
       <c r="A114" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2">
         <v>5357.1660000000002</v>
@@ -10632,9 +10641,9 @@
       <c r="AI114" s="2"/>
       <c r="AJ114" s="2"/>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:36">
       <c r="A115" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2">
         <v>5292.4440000000004</v>
@@ -10730,9 +10739,9 @@
       <c r="AI115" s="2"/>
       <c r="AJ115" s="2"/>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:36">
       <c r="A116" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B116" s="2">
         <v>5333.22</v>
@@ -10828,9 +10837,9 @@
       <c r="AI116" s="2"/>
       <c r="AJ116" s="2"/>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:36">
       <c r="A117" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2">
         <v>5421.357</v>
@@ -10926,9 +10935,9 @@
       <c r="AI117" s="2"/>
       <c r="AJ117" s="2"/>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:36">
       <c r="A118" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B118" s="2">
         <v>5494.4459999999999</v>
@@ -11024,9 +11033,9 @@
       <c r="AI118" s="2"/>
       <c r="AJ118" s="2"/>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:36">
       <c r="A119" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2">
         <v>5618.52</v>
@@ -11122,9 +11131,9 @@
       <c r="AI119" s="2"/>
       <c r="AJ119" s="2"/>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:36">
       <c r="A120" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2">
         <v>5660.9719999999998</v>
@@ -11220,9 +11229,9 @@
       <c r="AI120" s="2"/>
       <c r="AJ120" s="2"/>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:36">
       <c r="A121" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2">
         <v>5689.7560000000003</v>
@@ -11318,9 +11327,9 @@
       <c r="AI121" s="2"/>
       <c r="AJ121" s="2"/>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:36">
       <c r="A122" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2">
         <v>5732.4620000000004</v>
@@ -11416,9 +11425,9 @@
       <c r="AI122" s="2"/>
       <c r="AJ122" s="2"/>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:36">
       <c r="A123" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2">
         <v>5799.16</v>
@@ -11514,9 +11523,9 @@
       <c r="AI123" s="2"/>
       <c r="AJ123" s="2"/>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:36">
       <c r="A124" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B124" s="2">
         <v>5912.9769999999999</v>
@@ -11612,9 +11621,9 @@
       <c r="AI124" s="2"/>
       <c r="AJ124" s="2"/>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:36">
       <c r="A125" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2">
         <v>6017.5860000000002</v>
@@ -11710,9 +11719,9 @@
       <c r="AI125" s="2"/>
       <c r="AJ125" s="2"/>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:36">
       <c r="A126" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B126" s="2">
         <v>6018.2179999999998</v>
@@ -11808,9 +11817,9 @@
       <c r="AI126" s="2"/>
       <c r="AJ126" s="2"/>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:36">
       <c r="A127" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B127" s="2">
         <v>6039.1580000000004</v>
@@ -11906,9 +11915,9 @@
       <c r="AI127" s="2"/>
       <c r="AJ127" s="2"/>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:36">
       <c r="A128" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B128" s="2">
         <v>6273.9629999999997</v>
@@ -12004,9 +12013,9 @@
       <c r="AI128" s="2"/>
       <c r="AJ128" s="2"/>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:36">
       <c r="A129" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B129" s="2">
         <v>6335.317</v>
@@ -12102,9 +12111,9 @@
       <c r="AI129" s="2"/>
       <c r="AJ129" s="2"/>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:36">
       <c r="A130" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B130" s="2">
         <v>6420.2879999999996</v>
@@ -12200,9 +12209,9 @@
       <c r="AI130" s="2"/>
       <c r="AJ130" s="2"/>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:36">
       <c r="A131" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B131" s="2">
         <v>6433.0439999999999</v>
@@ -12298,9 +12307,9 @@
       <c r="AI131" s="2"/>
       <c r="AJ131" s="2"/>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:36">
       <c r="A132" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B132" s="2">
         <v>6440.8320000000003</v>
@@ -12396,9 +12405,9 @@
       <c r="AI132" s="2"/>
       <c r="AJ132" s="2"/>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:36">
       <c r="A133" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B133" s="2">
         <v>6487.08</v>
@@ -12494,9 +12503,9 @@
       <c r="AI133" s="2"/>
       <c r="AJ133" s="2"/>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:36">
       <c r="A134" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B134" s="2">
         <v>6503.8739999999998</v>
@@ -12592,9 +12601,9 @@
       <c r="AI134" s="2"/>
       <c r="AJ134" s="2"/>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:36">
       <c r="A135" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B135" s="2">
         <v>6524.9120000000003</v>
@@ -12690,9 +12699,9 @@
       <c r="AI135" s="2"/>
       <c r="AJ135" s="2"/>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:36">
       <c r="A136" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B136" s="2">
         <v>6392.5780000000004</v>
@@ -12788,9 +12797,9 @@
       <c r="AI136" s="2"/>
       <c r="AJ136" s="2"/>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:36">
       <c r="A137" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B137" s="2">
         <v>6382.8919999999998</v>
@@ -12886,9 +12895,9 @@
       <c r="AI137" s="2"/>
       <c r="AJ137" s="2"/>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:36">
       <c r="A138" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B138" s="2">
         <v>6501.1840000000002</v>
@@ -12984,9 +12993,9 @@
       <c r="AI138" s="2"/>
       <c r="AJ138" s="2"/>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:36">
       <c r="A139" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B139" s="2">
         <v>6635.7259999999997</v>
@@ -13082,9 +13091,9 @@
       <c r="AI139" s="2"/>
       <c r="AJ139" s="2"/>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:36">
       <c r="A140" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B140" s="2">
         <v>6587.2690000000002</v>
@@ -13180,9 +13189,9 @@
       <c r="AI140" s="2"/>
       <c r="AJ140" s="2"/>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:36">
       <c r="A141" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B141" s="2">
         <v>6662.8580000000002</v>
@@ -13278,9 +13287,9 @@
       <c r="AI141" s="2"/>
       <c r="AJ141" s="2"/>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:36">
       <c r="A142" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B142" s="2">
         <v>6585.1270000000004</v>
@@ -13376,9 +13385,9 @@
       <c r="AI142" s="2"/>
       <c r="AJ142" s="2"/>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:36">
       <c r="A143" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B143" s="2">
         <v>6474.973</v>
@@ -13474,9 +13483,9 @@
       <c r="AI143" s="2"/>
       <c r="AJ143" s="2"/>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:36">
       <c r="A144" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B144" s="2">
         <v>6510.2470000000003</v>
@@ -13572,9 +13581,9 @@
       <c r="AI144" s="2"/>
       <c r="AJ144" s="2"/>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:36">
       <c r="A145" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B145" s="2">
         <v>6486.8</v>
@@ -13670,9 +13679,9 @@
       <c r="AI145" s="2"/>
       <c r="AJ145" s="2"/>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:36">
       <c r="A146" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B146" s="2">
         <v>6493.1279999999997</v>
@@ -13768,9 +13777,9 @@
       <c r="AI146" s="2"/>
       <c r="AJ146" s="2"/>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:36">
       <c r="A147" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B147" s="2">
         <v>6578.1750000000002</v>
@@ -13866,9 +13875,9 @@
       <c r="AI147" s="2"/>
       <c r="AJ147" s="2"/>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:36">
       <c r="A148" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B148" s="2">
         <v>6728.2870000000003</v>
@@ -13964,9 +13973,9 @@
       <c r="AI148" s="2"/>
       <c r="AJ148" s="2"/>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:36">
       <c r="A149" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B149" s="2">
         <v>6860.0219999999999</v>
@@ -14062,9 +14071,9 @@
       <c r="AI149" s="2"/>
       <c r="AJ149" s="2"/>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:36">
       <c r="A150" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B150" s="2">
         <v>7001.4889999999996</v>
@@ -14160,9 +14169,9 @@
       <c r="AI150" s="2"/>
       <c r="AJ150" s="2"/>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:36">
       <c r="A151" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B151" s="2">
         <v>7140.5969999999998</v>
@@ -14258,9 +14267,9 @@
       <c r="AI151" s="2"/>
       <c r="AJ151" s="2"/>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:36">
       <c r="A152" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B152" s="2">
         <v>7266.01</v>
@@ -14356,9 +14365,9 @@
       <c r="AI152" s="2"/>
       <c r="AJ152" s="2"/>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:36">
       <c r="A153" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B153" s="2">
         <v>7337.4930000000004</v>
@@ -14454,9 +14463,9 @@
       <c r="AI153" s="2"/>
       <c r="AJ153" s="2"/>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:36">
       <c r="A154" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B154" s="2">
         <v>7396.0190000000002</v>
@@ -14554,9 +14563,9 @@
       <c r="AI154" s="2"/>
       <c r="AJ154" s="2"/>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:36">
       <c r="A155" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B155" s="2">
         <v>7469.5450000000001</v>
@@ -14654,9 +14663,9 @@
       <c r="AI155" s="2"/>
       <c r="AJ155" s="2"/>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:36">
       <c r="A156" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B156" s="2">
         <v>7537.9279999999999</v>
@@ -14754,9 +14763,9 @@
       <c r="AI156" s="2"/>
       <c r="AJ156" s="2"/>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:36">
       <c r="A157" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B157" s="2">
         <v>7655.1959999999999</v>
@@ -14854,9 +14863,9 @@
       <c r="AI157" s="2"/>
       <c r="AJ157" s="2"/>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:36">
       <c r="A158" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B158" s="2">
         <v>7712.6239999999998</v>
@@ -14954,9 +14963,9 @@
       <c r="AI158" s="2"/>
       <c r="AJ158" s="2"/>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:36">
       <c r="A159" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B159" s="2">
         <v>7784.1090000000004</v>
@@ -15054,9 +15063,9 @@
       <c r="AI159" s="2"/>
       <c r="AJ159" s="2"/>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:36">
       <c r="A160" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B160" s="2">
         <v>7819.8429999999998</v>
@@ -15154,9 +15163,9 @@
       <c r="AI160" s="2"/>
       <c r="AJ160" s="2"/>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:36">
       <c r="A161" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B161" s="2">
         <v>7898.5550000000003</v>
@@ -15254,9 +15263,9 @@
       <c r="AI161" s="2"/>
       <c r="AJ161" s="2"/>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:36">
       <c r="A162" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B162" s="2">
         <v>7939.45</v>
@@ -15354,9 +15363,9 @@
       <c r="AI162" s="2"/>
       <c r="AJ162" s="2"/>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:36">
       <c r="A163" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B163" s="2">
         <v>7994.9650000000001</v>
@@ -15454,9 +15463,9 @@
       <c r="AI163" s="2"/>
       <c r="AJ163" s="2"/>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:36">
       <c r="A164" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B164" s="2">
         <v>8084.71</v>
@@ -15554,9 +15563,9 @@
       <c r="AI164" s="2"/>
       <c r="AJ164" s="2"/>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:36">
       <c r="A165" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B165" s="2">
         <v>8158.0349999999999</v>
@@ -15654,9 +15663,9 @@
       <c r="AI165" s="2"/>
       <c r="AJ165" s="2"/>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:36">
       <c r="A166" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B166" s="2">
         <v>8292.6869999999999</v>
@@ -15754,9 +15763,9 @@
       <c r="AI166" s="2"/>
       <c r="AJ166" s="2"/>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:36">
       <c r="A167" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B167" s="2">
         <v>8339.3240000000005</v>
@@ -15854,9 +15863,9 @@
       <c r="AI167" s="2"/>
       <c r="AJ167" s="2"/>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:36">
       <c r="A168" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B168" s="2">
         <v>8449.51</v>
@@ -15954,9 +15963,9 @@
       <c r="AI168" s="2"/>
       <c r="AJ168" s="2"/>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:36">
       <c r="A169" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B169" s="2">
         <v>8498.2819999999992</v>
@@ -16054,9 +16063,9 @@
       <c r="AI169" s="2"/>
       <c r="AJ169" s="2"/>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:36">
       <c r="A170" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B170" s="2">
         <v>8610.85</v>
@@ -16154,9 +16163,9 @@
       <c r="AI170" s="2"/>
       <c r="AJ170" s="2"/>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:36">
       <c r="A171" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B171" s="2">
         <v>8697.7109999999993</v>
@@ -16254,9 +16263,9 @@
       <c r="AI171" s="2"/>
       <c r="AJ171" s="2"/>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:36">
       <c r="A172" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B172" s="2">
         <v>8766.1049999999996</v>
@@ -16354,9 +16363,9 @@
       <c r="AI172" s="2"/>
       <c r="AJ172" s="2"/>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:36">
       <c r="A173" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B173" s="2">
         <v>8831.5439999999999</v>
@@ -16454,9 +16463,9 @@
       <c r="AI173" s="2"/>
       <c r="AJ173" s="2"/>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:36">
       <c r="A174" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B174" s="2">
         <v>8850.23</v>
@@ -16554,9 +16563,9 @@
       <c r="AI174" s="2"/>
       <c r="AJ174" s="2"/>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:36">
       <c r="A175" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B175" s="2">
         <v>8947.1290000000008</v>
@@ -16654,9 +16663,9 @@
       <c r="AI175" s="2"/>
       <c r="AJ175" s="2"/>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:36">
       <c r="A176" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B176" s="2">
         <v>8981.7270000000008</v>
@@ -16754,9 +16763,9 @@
       <c r="AI176" s="2"/>
       <c r="AJ176" s="2"/>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:36">
       <c r="A177" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B177" s="2">
         <v>8983.9449999999997</v>
@@ -16854,9 +16863,9 @@
       <c r="AI177" s="2"/>
       <c r="AJ177" s="2"/>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:36">
       <c r="A178" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B178" s="2">
         <v>8907.3629999999994</v>
@@ -16956,9 +16965,9 @@
         <v>-0.69280278031157294</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:36">
       <c r="A179" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B179" s="2">
         <v>8865.5640000000003</v>
@@ -17058,9 +17067,9 @@
         <v>-0.71515535424915</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:36">
       <c r="A180" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B180" s="2">
         <v>8934.366</v>
@@ -17160,9 +17169,9 @@
         <v>-0.577724047608423</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:36">
       <c r="A181" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B181" s="2">
         <v>8977.2520000000004</v>
@@ -17262,9 +17271,9 @@
         <v>-0.47247558889242003</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:36">
       <c r="A182" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B182" s="2">
         <v>9016.4439999999995</v>
@@ -17364,9 +17373,9 @@
         <v>-0.345362410034179</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:36">
       <c r="A183" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B183" s="2">
         <v>9122.9500000000007</v>
@@ -17466,9 +17475,9 @@
         <v>-0.18487652345696901</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:36">
       <c r="A184" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B184" s="2">
         <v>9223.5450000000001</v>
@@ -17568,9 +17577,9 @@
         <v>-5.3965431273252505E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:36">
       <c r="A185" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B185" s="2">
         <v>9313.2080000000005</v>
@@ -17670,9 +17679,9 @@
         <v>5.2377734956826107E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:36">
       <c r="A186" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B186" s="2">
         <v>9406.5280000000002</v>
@@ -17772,9 +17781,9 @@
         <v>5.9109019605266405E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:36">
       <c r="A187" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B187" s="2">
         <v>9424.0650000000005</v>
@@ -17874,9 +17883,9 @@
         <v>9.0909053694964506E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:36">
       <c r="A188" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B188" s="2">
         <v>9480.1059999999998</v>
@@ -17976,9 +17985,9 @@
         <v>0.116671695553867</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:36">
       <c r="A189" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B189" s="2">
         <v>9526.3369999999995</v>
@@ -18078,9 +18087,9 @@
         <v>0.163440670180936</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:36">
       <c r="A190" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B190" s="2">
         <v>9653.509</v>
@@ -18180,9 +18189,9 @@
         <v>0.20457159161786401</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:36">
       <c r="A191" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B191" s="2">
         <v>9748.1560000000009</v>
@@ -18282,9 +18291,9 @@
         <v>0.24590030872722601</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:36">
       <c r="A192" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B192" s="2">
         <v>9881.384</v>
@@ -18384,9 +18393,9 @@
         <v>0.28636291308169598</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:36">
       <c r="A193" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B193" s="2">
         <v>9939.6550000000007</v>
@@ -18486,9 +18495,9 @@
         <v>0.30089199829272101</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:36">
       <c r="A194" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B194" s="2">
         <v>10052.518</v>
@@ -18588,9 +18597,9 @@
         <v>0.30873620816476399</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:36">
       <c r="A195" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B195" s="2">
         <v>10086.878000000001</v>
@@ -18690,9 +18699,9 @@
         <v>0.28797007440010403</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:36">
       <c r="A196" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B196" s="2">
         <v>10122.121999999999</v>
@@ -18792,9 +18801,9 @@
         <v>0.27185069804504303</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:36">
       <c r="A197" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B197" s="2">
         <v>10208.772000000001</v>
@@ -18894,9 +18903,9 @@
         <v>0.24781633436787501</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:36">
       <c r="A198" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B198" s="2">
         <v>10281.245999999999</v>
@@ -18996,9 +19005,9 @@
         <v>0.22961297050720098</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:36">
       <c r="A199" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B199" s="2">
         <v>10348.691000000001</v>
@@ -19098,9 +19107,9 @@
         <v>0.15971235885046201</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:36">
       <c r="A200" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B200" s="2">
         <v>10529.379000000001</v>
@@ -19200,9 +19209,9 @@
         <v>0.13433759581305701</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:36">
       <c r="A201" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B201" s="2">
         <v>10626.778</v>
@@ -19302,9 +19311,9 @@
         <v>0.118106266679025</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:36">
       <c r="A202" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B202" s="2">
         <v>10739.057000000001</v>
@@ -19404,9 +19413,9 @@
         <v>0.133543431092148</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:36">
       <c r="A203" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B203" s="2">
         <v>10820.907999999999</v>
@@ -19508,9 +19517,9 @@
         <v>0.15043723119024399</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:36">
       <c r="A204" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B204" s="2">
         <v>10984.15</v>
@@ -19612,9 +19621,9 @@
         <v>0.19604113730755401</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:36">
       <c r="A205" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B205" s="2">
         <v>11124.013000000001</v>
@@ -19716,9 +19725,9 @@
         <v>0.22840996811959902</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:36">
       <c r="A206" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B206" s="2">
         <v>11210.329</v>
@@ -19820,9 +19829,9 @@
         <v>0.252513293813726</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:36">
       <c r="A207" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B207" s="2">
         <v>11321.245999999999</v>
@@ -19924,9 +19933,9 @@
         <v>0.23490091431483101</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:36">
       <c r="A208" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B208" s="2">
         <v>11431.046</v>
@@ -20028,9 +20037,9 @@
         <v>0.23960082674273298</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:36">
       <c r="A209" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B209" s="2">
         <v>11580.587</v>
@@ -20132,9 +20141,9 @@
         <v>0.229817105975168</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:36">
       <c r="A210" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B210" s="2">
         <v>11770.686</v>
@@ -20236,9 +20245,9 @@
         <v>9.9168075748739107E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:36">
       <c r="A211" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B211" s="2">
         <v>11864.674999999999</v>
@@ -20342,9 +20351,9 @@
         <v>4.8974954571812203E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:36">
       <c r="A212" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B212" s="2">
         <v>11962.523999999999</v>
@@ -20448,9 +20457,9 @@
         <v>2.24231351298988E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:36">
       <c r="A213" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B213" s="2">
         <v>12113.075000000001</v>
@@ -20554,9 +20563,9 @@
         <v>-1.3752682057584301E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:36">
       <c r="A214" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B214" s="2">
         <v>12323.335999999999</v>
@@ -20660,9 +20669,9 @@
         <v>-3.9542668972678496E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:36">
       <c r="A215" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B215" s="2">
         <v>12359.094999999999</v>
@@ -20766,9 +20775,9 @@
         <v>4.2029092059848304E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:36">
       <c r="A216" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B216" s="2">
         <v>12592.53</v>
@@ -20872,9 +20881,9 @@
         <v>-7.894570582642139E-4</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:36">
       <c r="A217" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B217" s="2">
         <v>12607.675999999999</v>
@@ -20978,9 +20987,9 @@
         <v>-7.5267980812745994E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:36">
       <c r="A218" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B218" s="2">
         <v>12679.338</v>
@@ -21084,9 +21093,9 @@
         <v>-0.16694409615227498</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:36">
       <c r="A219" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B219" s="2">
         <v>12643.282999999999</v>
@@ -21190,9 +21199,9 @@
         <v>-0.31839088020002998</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:36">
       <c r="A220" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B220" s="2">
         <v>12710.303</v>
@@ -21296,9 +21305,9 @@
         <v>-0.43806154358182603</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:36">
       <c r="A221" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B221" s="2">
         <v>12670.106</v>
@@ -21402,9 +21411,9 @@
         <v>-0.50458326818886001</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:36">
       <c r="A222" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B222" s="2">
         <v>12705.269</v>
@@ -21508,9 +21517,9 @@
         <v>-0.56685426463381805</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:36">
       <c r="A223" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B223" s="2">
         <v>12822.258</v>
@@ -21614,9 +21623,9 @@
         <v>-0.61961489875967002</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:36">
       <c r="A224" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B224" s="2">
         <v>12893.002</v>
@@ -21720,9 +21729,9 @@
         <v>-0.54246076094472895</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:36">
       <c r="A225" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B225" s="2">
         <v>12955.769</v>
@@ -21826,9 +21835,9 @@
         <v>-0.46464540081842104</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:36">
       <c r="A226" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B226" s="2">
         <v>12964.016</v>
@@ -21932,9 +21941,9 @@
         <v>-0.40818801139942601</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:36">
       <c r="A227" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B227" s="2">
         <v>13031.169</v>
@@ -22038,9 +22047,9 @@
         <v>-0.315720052022263</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:36">
       <c r="A228" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B228" s="2">
         <v>13152.089</v>
@@ -22144,9 +22153,9 @@
         <v>-0.212360100953047</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:36">
       <c r="A229" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B229" s="2">
         <v>13372.357</v>
@@ -22250,9 +22259,9 @@
         <v>-0.155369682564547</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:36">
       <c r="A230" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B230" s="2">
         <v>13528.71</v>
@@ -22356,9 +22365,9 @@
         <v>-8.8897633053790504E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:36">
       <c r="A231" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B231" s="2">
         <v>13606.509</v>
@@ -22462,9 +22471,9 @@
         <v>2.1227695572330601E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:36">
       <c r="A232" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B232" s="2">
         <v>13706.246999999999</v>
@@ -22568,9 +22577,9 @@
         <v>0.13904834209960001</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:36">
       <c r="A233" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B233" s="2">
         <v>13830.828</v>
@@ -22674,9 +22683,9 @@
         <v>0.22981494025573901</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:36">
       <c r="A234" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B234" s="2">
         <v>13950.376</v>
@@ -22780,9 +22789,9 @@
         <v>0.32679744297188401</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:36">
       <c r="A235" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B235" s="2">
         <v>14099.081</v>
@@ -22886,9 +22895,9 @@
         <v>0.40508896305074699</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:36">
       <c r="A236" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B236" s="2">
         <v>14172.695</v>
@@ -22992,9 +23001,9 @@
         <v>0.45841064077650701</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:36">
       <c r="A237" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B237" s="2">
         <v>14291.757</v>
@@ -23098,9 +23107,9 @@
         <v>0.46265287391012899</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:36">
       <c r="A238" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B238" s="2">
         <v>14373.438</v>
@@ -23204,9 +23213,9 @@
         <v>0.46168243087840599</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:36">
       <c r="A239" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B239" s="2">
         <v>14546.119000000001</v>
@@ -23310,9 +23319,9 @@
         <v>0.424881591028484</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:36">
       <c r="A240" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B240" s="2">
         <v>14589.584999999999</v>
@@ -23416,9 +23425,9 @@
         <v>0.38292723338460499</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:36">
       <c r="A241" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B241" s="2">
         <v>14602.633</v>
@@ -23522,9 +23531,9 @@
         <v>0.31815433730526599</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:36">
       <c r="A242" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B242" s="2">
         <v>14716.93</v>
@@ -23628,9 +23637,9 @@
         <v>0.19454122701704299</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:36">
       <c r="A243" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B243" s="2">
         <v>14726.022000000001</v>
@@ -23734,9 +23743,9 @@
         <v>0.130176383451929</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:36">
       <c r="A244" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B244" s="2">
         <v>14838.664000000001</v>
@@ -23840,9 +23849,9 @@
         <v>6.20962659983657E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:36">
       <c r="A245" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B245" s="2">
         <v>14938.467000000001</v>
@@ -23946,9 +23955,9 @@
         <v>-1.7026895261082399E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:36">
       <c r="A246" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B246" s="2">
         <v>14991.784</v>
@@ -24052,9 +24061,9 @@
         <v>-0.12854958056189</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:36">
       <c r="A247" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B247" s="2">
         <v>14889.45</v>
@@ -24162,9 +24171,9 @@
         <v>-0.23773756475203497</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:36">
       <c r="A248" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B248" s="2">
         <v>14963.357</v>
@@ -24272,9 +24281,9 @@
         <v>-0.43767820647825501</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:36">
       <c r="A249" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B249" s="2">
         <v>14891.643</v>
@@ -24382,9 +24391,9 @@
         <v>-0.67018256417997901</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:36">
       <c r="A250" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B250" s="2">
         <v>14576.985000000001</v>
@@ -24492,9 +24501,9 @@
         <v>-0.983401449816101</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:36">
       <c r="A251" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B251" s="2">
         <v>14375.018</v>
@@ -24602,9 +24611,9 @@
         <v>-1.1913543883445099</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:36">
       <c r="A252" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B252" s="2">
         <v>14355.558000000001</v>
@@ -24712,9 +24721,9 @@
         <v>-1.2537380426340099</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:36">
       <c r="A253" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B253" s="2">
         <v>14402.477000000001</v>
@@ -24822,9 +24831,9 @@
         <v>-1.23528128248822</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:36">
       <c r="A254" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B254" s="2">
         <v>14541.901</v>
@@ -24932,9 +24941,9 @@
         <v>-1.1100678092816501</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:36">
       <c r="A255" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B255" s="2">
         <v>14604.844999999999</v>
@@ -25042,9 +25051,9 @@
         <v>-0.85497889506485703</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:36">
       <c r="A256" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B256" s="2">
         <v>14745.933000000001</v>
@@ -25152,9 +25161,9 @@
         <v>-0.620185927331527</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:36">
       <c r="A257" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B257" s="2">
         <v>14845.458000000001</v>
@@ -25260,9 +25269,9 @@
         <v>-0.42298710413507801</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:36">
       <c r="A258" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B258" s="2">
         <v>14939.001</v>
@@ -25368,9 +25377,9 @@
         <v>-0.24507491201940201</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:36">
       <c r="A259" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B259" s="2">
         <v>14881.300999999999</v>
@@ -25476,9 +25485,9 @@
         <v>-0.131049395285008</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:36">
       <c r="A260" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B260" s="2">
         <v>14989.555</v>
@@ -25584,9 +25593,9 @@
         <v>-3.2729294649763999E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:36">
       <c r="A261" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B261" s="2">
         <v>15021.148999999999</v>
@@ -25692,9 +25701,9 @@
         <v>3.1676308710206401E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:36">
       <c r="A262" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B262" s="2">
         <v>15190.254999999999</v>
@@ -25800,122 +25809,122 @@
         <v>3.8336462539353404E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:36">
       <c r="AB263" s="1"/>
       <c r="AC263" s="1"/>
       <c r="AD263" s="1"/>
     </row>
-    <row r="264" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:36">
       <c r="AB264" s="1"/>
       <c r="AC264" s="1"/>
       <c r="AD264" s="1"/>
     </row>
-    <row r="265" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:36">
       <c r="AB265" s="1"/>
       <c r="AC265" s="1"/>
       <c r="AD265" s="1"/>
     </row>
-    <row r="266" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:36">
       <c r="AB266" s="1"/>
       <c r="AC266" s="1"/>
       <c r="AD266" s="1"/>
     </row>
-    <row r="267" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:36">
       <c r="AB267" s="1"/>
       <c r="AC267" s="1"/>
       <c r="AD267" s="1"/>
     </row>
-    <row r="268" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:36">
       <c r="AB268" s="1"/>
       <c r="AC268" s="1"/>
       <c r="AD268" s="1"/>
     </row>
-    <row r="269" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:36">
       <c r="AB269" s="1"/>
       <c r="AC269" s="1"/>
       <c r="AD269" s="1"/>
     </row>
-    <row r="270" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:36">
       <c r="AB270" s="1"/>
       <c r="AC270" s="1"/>
       <c r="AD270" s="1"/>
     </row>
-    <row r="271" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:36">
       <c r="AB271" s="1"/>
       <c r="AC271" s="1"/>
       <c r="AD271" s="1"/>
     </row>
-    <row r="272" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:36">
       <c r="AB272" s="1"/>
       <c r="AC272" s="1"/>
       <c r="AD272" s="1"/>
     </row>
-    <row r="273" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="273" spans="28:30">
       <c r="AB273" s="1"/>
       <c r="AC273" s="1"/>
       <c r="AD273" s="1"/>
     </row>
-    <row r="274" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="274" spans="28:30">
       <c r="AB274" s="1"/>
       <c r="AC274" s="1"/>
       <c r="AD274" s="1"/>
     </row>
-    <row r="275" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="275" spans="28:30">
       <c r="AB275" s="1"/>
       <c r="AC275" s="1"/>
       <c r="AD275" s="1"/>
     </row>
-    <row r="276" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="276" spans="28:30">
       <c r="AB276" s="1"/>
       <c r="AC276" s="1"/>
       <c r="AD276" s="1"/>
     </row>
-    <row r="277" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="277" spans="28:30">
       <c r="AB277" s="1"/>
       <c r="AC277" s="1"/>
       <c r="AD277" s="1"/>
     </row>
-    <row r="278" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="278" spans="28:30">
       <c r="AB278" s="1"/>
       <c r="AC278" s="1"/>
       <c r="AD278" s="1"/>
     </row>
-    <row r="279" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="279" spans="28:30">
       <c r="AB279" s="1"/>
       <c r="AC279" s="1"/>
       <c r="AD279" s="1"/>
     </row>
-    <row r="280" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="280" spans="28:30">
       <c r="AB280" s="1"/>
       <c r="AC280" s="1"/>
       <c r="AD280" s="1"/>
     </row>
-    <row r="281" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="281" spans="28:30">
       <c r="AB281" s="1"/>
       <c r="AC281" s="1"/>
       <c r="AD281" s="1"/>
     </row>
-    <row r="282" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="282" spans="28:30">
       <c r="AB282" s="1"/>
       <c r="AC282" s="1"/>
       <c r="AD282" s="1"/>
     </row>
-    <row r="283" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="283" spans="28:30">
       <c r="AB283" s="1"/>
       <c r="AC283" s="1"/>
       <c r="AD283" s="1"/>
     </row>
-    <row r="284" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="284" spans="28:30">
       <c r="AB284" s="1"/>
       <c r="AC284" s="1"/>
       <c r="AD284" s="1"/>
     </row>
-    <row r="285" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="285" spans="28:30">
       <c r="AB285" s="1"/>
       <c r="AC285" s="1"/>
       <c r="AD285" s="1"/>
     </row>
-    <row r="286" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="286" spans="28:30">
       <c r="AB286" s="1"/>
       <c r="AC286" s="1"/>
       <c r="AD286" s="1"/>
